--- a/resultados_tabela_programmed/resultados_tabela.xlsx
+++ b/resultados_tabela_programmed/resultados_tabela.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68ab3f4a40a4996c/TCC/RLLib_códigos/tcc-final-models/tcc-final-models/resultados_tabela_programmed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6FBF010-08AC-440F-ACFD-E01B5F611A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{D6FBF010-08AC-440F-ACFD-E01B5F611A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18E1A852-1E68-4F50-A4B1-31F8C4AA2430}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultados_tabela" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Temperatura ambiente</t>
   </si>
@@ -66,11 +79,14 @@
   <si>
     <t>Custo de água total (R$)</t>
   </si>
+  <si>
+    <t>Custo total (R$)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -906,11 +922,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="R2" sqref="R2:R97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +935,7 @@
     <col min="2" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -965,8 +981,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>15</v>
       </c>
@@ -1012,8 +1031,12 @@
       <c r="O2" s="1">
         <v>0.37365808737985201</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R2" s="1">
+        <f>SUM(M2,N2,O2)</f>
+        <v>2.0034282290372749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>15</v>
       </c>
@@ -1059,8 +1082,12 @@
       <c r="O3" s="1">
         <v>0.37877547627941899</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R66" si="0">SUM(M3,N3,O3)</f>
+        <v>2.1480087028796579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>15</v>
       </c>
@@ -1106,8 +1133,12 @@
       <c r="O4" s="1">
         <v>0.38875168428200702</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3001806750312008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>15</v>
       </c>
@@ -1153,8 +1184,12 @@
       <c r="O5" s="1">
         <v>0.37134796427029199</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3614863910975132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>15</v>
       </c>
@@ -1200,8 +1235,12 @@
       <c r="O6" s="1">
         <v>0.36579483412161801</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4469463628787032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>15</v>
       </c>
@@ -1247,8 +1286,12 @@
       <c r="O7" s="1">
         <v>0.38191810059390702</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6261994074125274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>16</v>
       </c>
@@ -1294,8 +1337,12 @@
       <c r="O8" s="1">
         <v>0.35932376087890699</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.893798408887498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>16</v>
       </c>
@@ -1341,8 +1388,12 @@
       <c r="O9" s="1">
         <v>0.38158373962772502</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0892756555279668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -1388,8 +1439,12 @@
       <c r="O10" s="1">
         <v>0.37367246151435102</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1753004044668831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -1435,8 +1490,12 @@
       <c r="O11" s="1">
         <v>0.378519015288028</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.294601032705581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>16</v>
       </c>
@@ -1482,8 +1541,12 @@
       <c r="O12" s="1">
         <v>0.364962879668286</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.340511292964452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>16</v>
       </c>
@@ -1529,8 +1592,12 @@
       <c r="O13" s="1">
         <v>0.36972024444239998</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4887759596173402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>17</v>
       </c>
@@ -1576,8 +1643,12 @@
       <c r="O14" s="1">
         <v>0.35084755831256498</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.804401856792198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>17</v>
       </c>
@@ -1623,8 +1694,12 @@
       <c r="O15" s="1">
         <v>0.35148366800125502</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.913060971133733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -1670,8 +1745,12 @@
       <c r="O16" s="1">
         <v>0.36179469367873801</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0562103198965822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1717,8 +1796,12 @@
       <c r="O17" s="1">
         <v>0.34529494297462299</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0713117547090469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1764,8 +1847,12 @@
       <c r="O18" s="1">
         <v>0.35527463028675199</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2383036152543019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1811,8 +1898,12 @@
       <c r="O19" s="1">
         <v>0.35373130420693899</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3440553698399218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1858,8 +1949,12 @@
       <c r="O20" s="1">
         <v>0.31515995202889802</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6446996780238372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1905,8 +2000,12 @@
       <c r="O21" s="1">
         <v>0.33659471619627801</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7877983291103732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1952,8 +2051,12 @@
       <c r="O22" s="1">
         <v>0.33961471582370201</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8993716471732818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -1999,8 +2102,12 @@
       <c r="O23" s="1">
         <v>0.34364979204458102</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R23" s="1">
+        <f t="shared" si="0"/>
+        <v>2.004175502635718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -2046,8 +2153,12 @@
       <c r="O24" s="1">
         <v>0.34542366119510598</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R24" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1117976531316538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>18</v>
       </c>
@@ -2093,8 +2204,12 @@
       <c r="O25" s="1">
         <v>0.33795258951420698</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R25" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1826931576081341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>19</v>
       </c>
@@ -2140,8 +2255,12 @@
       <c r="O26" s="1">
         <v>0.33268847201759999</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.625418594901098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>19</v>
       </c>
@@ -2187,8 +2306,12 @@
       <c r="O27" s="1">
         <v>0.32366760153845497</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6593042155939259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>19</v>
       </c>
@@ -2234,8 +2357,12 @@
       <c r="O28" s="1">
         <v>0.32267432964766102</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7572981252030619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>19</v>
       </c>
@@ -2281,8 +2408,12 @@
       <c r="O29" s="1">
         <v>0.33754969071979901</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9062377808117941</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>19</v>
       </c>
@@ -2328,8 +2459,12 @@
       <c r="O30" s="1">
         <v>0.34068315778526098</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R30" s="1">
+        <f t="shared" si="0"/>
+        <v>2.002873703441832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>19</v>
       </c>
@@ -2375,8 +2510,12 @@
       <c r="O31" s="1">
         <v>0.316949424223544</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9905278709582359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -2422,8 +2561,12 @@
       <c r="O32" s="1">
         <v>0.328359388974162</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.553677474313393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>20</v>
       </c>
@@ -2469,8 +2612,12 @@
       <c r="O33" s="1">
         <v>0.30967483919745697</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.571680067592514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>20</v>
       </c>
@@ -2516,8 +2663,12 @@
       <c r="O34" s="1">
         <v>0.33141076906866201</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7199667536303891</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>20</v>
       </c>
@@ -2563,8 +2714,12 @@
       <c r="O35" s="1">
         <v>0.29868806719449098</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.694775516559089</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>20</v>
       </c>
@@ -2610,8 +2765,12 @@
       <c r="O36" s="1">
         <v>0.326696762869984</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8734871046287549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>20</v>
       </c>
@@ -2657,8 +2816,12 @@
       <c r="O37" s="1">
         <v>0.31179114947776498</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8848565592398241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>21</v>
       </c>
@@ -2704,8 +2867,12 @@
       <c r="O38" s="1">
         <v>0.34499142496990198</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.527646405878625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>21</v>
       </c>
@@ -2751,8 +2918,12 @@
       <c r="O39" s="1">
         <v>0.28666836260585699</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R39" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4330758433183282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>21</v>
       </c>
@@ -2798,8 +2969,12 @@
       <c r="O40" s="1">
         <v>0.29867024946251403</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.55115924640546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>21</v>
       </c>
@@ -2845,8 +3020,12 @@
       <c r="O41" s="1">
         <v>0.30281129932189998</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6274119754662197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>21</v>
       </c>
@@ -2892,8 +3071,12 @@
       <c r="O42" s="1">
         <v>0.30440902553854499</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R42" s="1">
+        <f t="shared" si="0"/>
+        <v>1.709046275046489</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>21</v>
       </c>
@@ -2939,8 +3122,12 @@
       <c r="O43" s="1">
         <v>0.30056450615847802</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R43" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7755703750335972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>22</v>
       </c>
@@ -2986,8 +3173,12 @@
       <c r="O44" s="1">
         <v>0.292827446514138</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R44" s="1">
+        <f t="shared" si="0"/>
+        <v>1.330947657470785</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>22</v>
       </c>
@@ -3033,8 +3224,12 @@
       <c r="O45" s="1">
         <v>0.29473193430414701</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R45" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4071170687754861</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>22</v>
       </c>
@@ -3080,8 +3275,12 @@
       <c r="O46" s="1">
         <v>0.29310112485589002</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R46" s="1">
+        <f t="shared" si="0"/>
+        <v>1.460193741055237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>22</v>
       </c>
@@ -3127,8 +3326,12 @@
       <c r="O47" s="1">
         <v>0.273902774273863</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R47" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4705657485015649</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>22</v>
       </c>
@@ -3174,8 +3377,12 @@
       <c r="O48" s="1">
         <v>0.29462616237896599</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R48" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6025691290322519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>22</v>
       </c>
@@ -3221,8 +3428,12 @@
       <c r="O49" s="1">
         <v>0.28690245298157002</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R49" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6489083700470442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>23</v>
       </c>
@@ -3268,8 +3479,12 @@
       <c r="O50" s="1">
         <v>0.27356223070945701</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R50" s="1">
+        <f t="shared" si="0"/>
+        <v>1.218900057416741</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>23</v>
       </c>
@@ -3315,8 +3530,12 @@
       <c r="O51" s="1">
         <v>0.26973469374983999</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2726054345111169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>23</v>
       </c>
@@ -3362,8 +3581,12 @@
       <c r="O52" s="1">
         <v>0.26004062278213103</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3035636235893511</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>23</v>
       </c>
@@ -3409,8 +3632,12 @@
       <c r="O53" s="1">
         <v>0.27650644811154201</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R53" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4142503459156339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>23</v>
       </c>
@@ -3456,8 +3683,12 @@
       <c r="O54" s="1">
         <v>0.26175695054769099</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R54" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4314750759712829</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>23</v>
       </c>
@@ -3503,8 +3734,12 @@
       <c r="O55" s="1">
         <v>0.27661829366107299</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R55" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5425592486526389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>24</v>
       </c>
@@ -3550,8 +3785,12 @@
       <c r="O56" s="1">
         <v>0.25411958937957502</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R56" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1084645482215509</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>24</v>
       </c>
@@ -3597,8 +3836,12 @@
       <c r="O57" s="1">
         <v>0.26738087479370298</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R57" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1964943225751461</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>24</v>
       </c>
@@ -3644,8 +3887,12 @@
       <c r="O58" s="1">
         <v>0.25606232703735099</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R58" s="1">
+        <f t="shared" si="0"/>
+        <v>1.231188635566977</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>24</v>
       </c>
@@ -3691,8 +3938,12 @@
       <c r="O59" s="1">
         <v>0.27278897811533098</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R59" s="1">
+        <f t="shared" si="0"/>
+        <v>1.336621695818454</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>24</v>
       </c>
@@ -3738,8 +3989,12 @@
       <c r="O60" s="1">
         <v>0.25198183174303501</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R60" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3315632049270389</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>24</v>
       </c>
@@ -3785,8 +4040,12 @@
       <c r="O61" s="1">
         <v>0.24519456502756901</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R61" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3710923291930019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>25</v>
       </c>
@@ -3832,8 +4091,12 @@
       <c r="O62" s="1">
         <v>0.25367855802038802</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R62" s="1">
+        <f t="shared" si="0"/>
+        <v>1.031221111211877</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>25</v>
       </c>
@@ -3879,8 +4142,12 @@
       <c r="O63" s="1">
         <v>0.25187734860125699</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R63" s="1">
+        <f t="shared" si="0"/>
+        <v>1.105386924647227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>25</v>
       </c>
@@ -3926,8 +4193,12 @@
       <c r="O64" s="1">
         <v>0.27347832172514502</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R64" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2281000916683251</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>25</v>
       </c>
@@ -3973,8 +4244,12 @@
       <c r="O65" s="1">
         <v>0.255069621956315</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R65" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2215587259911742</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>25</v>
       </c>
@@ -4020,8 +4295,12 @@
       <c r="O66" s="1">
         <v>0.26114137279411198</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R66" s="1">
+        <f t="shared" si="0"/>
+        <v>1.283446056169792</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>25</v>
       </c>
@@ -4067,8 +4346,12 @@
       <c r="O67" s="1">
         <v>0.27463822981728098</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R67" s="1">
+        <f t="shared" ref="R67:R97" si="1">SUM(M67,N67,O67)</f>
+        <v>1.3696618496787509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>26</v>
       </c>
@@ -4114,8 +4397,12 @@
       <c r="O68" s="1">
         <v>0.26535845140258602</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R68" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0404312662587429</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>26</v>
       </c>
@@ -4161,8 +4448,12 @@
       <c r="O69" s="1">
         <v>0.25362886251080502</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R69" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0566771776154469</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>26</v>
       </c>
@@ -4208,8 +4499,12 @@
       <c r="O70" s="1">
         <v>0.269291525996536</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R70" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1292126675698291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>26</v>
       </c>
@@ -4255,8 +4550,12 @@
       <c r="O71" s="1">
         <v>0.25947125184224301</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R71" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1834067554366952</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>26</v>
       </c>
@@ -4302,8 +4601,12 @@
       <c r="O72" s="1">
         <v>0.25764784377688599</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R72" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2074317713615401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>26</v>
       </c>
@@ -4349,8 +4652,12 @@
       <c r="O73" s="1">
         <v>0.27737232228966802</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R73" s="1">
+        <f t="shared" si="1"/>
+        <v>1.278087747821582</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>27</v>
       </c>
@@ -4396,8 +4703,12 @@
       <c r="O74" s="1">
         <v>0.25213464025510401</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R74" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94694581926423205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>27</v>
       </c>
@@ -4443,8 +4754,12 @@
       <c r="O75" s="1">
         <v>0.25362886251080502</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R75" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99777931722393709</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>27</v>
       </c>
@@ -4490,8 +4805,12 @@
       <c r="O76" s="1">
         <v>0.24463162877366801</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R76" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0190611632448061</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>27</v>
       </c>
@@ -4537,8 +4856,12 @@
       <c r="O77" s="1">
         <v>0.23743929431173499</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R77" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0458163043862201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>27</v>
       </c>
@@ -4584,8 +4907,12 @@
       <c r="O78" s="1">
         <v>0.25720446508893102</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R78" s="1">
+        <f t="shared" si="1"/>
+        <v>1.129622418986528</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>27</v>
       </c>
@@ -4631,8 +4958,12 @@
       <c r="O79" s="1">
         <v>0.24681867058752899</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R79" s="1">
+        <f t="shared" si="1"/>
+        <v>1.158695579573471</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>28</v>
       </c>
@@ -4678,8 +5009,12 @@
       <c r="O80" s="1">
         <v>0.23513137098127401</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R80" s="1">
+        <f t="shared" si="1"/>
+        <v>0.85410920143246993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>28</v>
       </c>
@@ -4725,8 +5060,12 @@
       <c r="O81" s="1">
         <v>0.24784583668482099</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R81" s="1">
+        <f t="shared" si="1"/>
+        <v>0.93187292585135295</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>28</v>
       </c>
@@ -4772,8 +5111,12 @@
       <c r="O82" s="1">
         <v>0.24049579086329201</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.95023928137515001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>28</v>
       </c>
@@ -4819,8 +5162,12 @@
       <c r="O83" s="1">
         <v>0.23512323536954899</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R83" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97866750673465397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>28</v>
       </c>
@@ -4866,8 +5213,12 @@
       <c r="O84" s="1">
         <v>0.25028373532638998</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R84" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0606436515479309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>28</v>
       </c>
@@ -4913,8 +5264,12 @@
       <c r="O85" s="1">
         <v>0.23402484827380601</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R85" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0522781582783591</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>29</v>
       </c>
@@ -4960,8 +5315,12 @@
       <c r="O86" s="1">
         <v>0.23037039257567399</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.79586800956430692</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>29</v>
       </c>
@@ -5007,8 +5366,12 @@
       <c r="O87" s="1">
         <v>0.22398127757144301</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R87" s="1">
+        <f t="shared" si="1"/>
+        <v>0.81637515352827306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>29</v>
       </c>
@@ -5054,8 +5417,12 @@
       <c r="O88" s="1">
         <v>0.23290378379037099</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R88" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87951246739553701</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>29</v>
       </c>
@@ -5101,8 +5468,12 @@
       <c r="O89" s="1">
         <v>0.235499416382215</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R89" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91648456381172605</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>29</v>
       </c>
@@ -5148,8 +5519,12 @@
       <c r="O90" s="1">
         <v>0.19817095258050399</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R90" s="1">
+        <f t="shared" si="1"/>
+        <v>0.88118069121613796</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>29</v>
       </c>
@@ -5195,8 +5570,12 @@
       <c r="O91" s="1">
         <v>0.25192704411083999</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R91" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0283594250884538</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>30</v>
       </c>
@@ -5242,8 +5621,12 @@
       <c r="O92" s="1">
         <v>0.22745348231899801</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.74015792029127903</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>30</v>
       </c>
@@ -5289,8 +5672,12 @@
       <c r="O93" s="1">
         <v>0.23688488886275899</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R93" s="1">
+        <f t="shared" si="1"/>
+        <v>0.79358473694349607</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>30</v>
       </c>
@@ -5336,8 +5723,12 @@
       <c r="O94" s="1">
         <v>0.23014910271679001</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R94" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82857743426666697</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>30</v>
       </c>
@@ -5383,8 +5774,12 @@
       <c r="O95" s="1">
         <v>0.23118868645754401</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R95" s="1">
+        <f t="shared" si="1"/>
+        <v>0.84718487636934803</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>30</v>
       </c>
@@ -5430,8 +5825,12 @@
       <c r="O96" s="1">
         <v>0.227087818194289</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R96" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86626807914790904</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>30</v>
       </c>
@@ -5476,6 +5875,10 @@
       </c>
       <c r="O97" s="1">
         <v>0.23951254733240099</v>
+      </c>
+      <c r="R97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91936623045982901</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_tabela_programmed/resultados_tabela.xlsx
+++ b/resultados_tabela_programmed/resultados_tabela.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68ab3f4a40a4996c/TCC/RLLib_códigos/tcc-final-models/tcc-final-models/resultados_tabela_programmed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89BB28F9-22C8-42EE-B910-416CD5A707C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{89BB28F9-22C8-42EE-B910-416CD5A707C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28DBEFDA-B83A-4177-943B-D87841D0204B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultados_tabela" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Temperatura ambiente</t>
   </si>
@@ -66,11 +79,14 @@
   <si>
     <t>Custo de água total (R$)</t>
   </si>
+  <si>
+    <t>Custo total (R$)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -906,11 +922,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="U72" sqref="U72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +935,7 @@
     <col min="2" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -965,8 +981,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>15</v>
       </c>
@@ -1012,8 +1031,12 @@
       <c r="O2" s="1">
         <v>0.36529522374102702</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R2" s="1">
+        <f>SUM(M2,N2,O2)</f>
+        <v>1.9879928404945051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>15</v>
       </c>
@@ -1059,8 +1082,12 @@
       <c r="O3" s="1">
         <v>0.37203870184539001</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R66" si="0">SUM(M3,N3,O3)</f>
+        <v>2.1210763658722711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>15</v>
       </c>
@@ -1106,8 +1133,12 @@
       <c r="O4" s="1">
         <v>0.37752575063059302</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2604183499807462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>15</v>
       </c>
@@ -1153,8 +1184,12 @@
       <c r="O5" s="1">
         <v>0.37118008912745598</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3533003242386519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>15</v>
       </c>
@@ -1200,8 +1235,12 @@
       <c r="O6" s="1">
         <v>0.37302979599945102</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4697446369686444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>15</v>
       </c>
@@ -1247,8 +1286,12 @@
       <c r="O7" s="1">
         <v>0.37276541210970299</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5913149134221429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>16</v>
       </c>
@@ -1294,8 +1337,12 @@
       <c r="O8" s="1">
         <v>0.37939700576284502</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.973877608045487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>16</v>
       </c>
@@ -1341,8 +1388,12 @@
       <c r="O9" s="1">
         <v>0.375106773363448</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0701744518321581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -1388,8 +1439,12 @@
       <c r="O10" s="1">
         <v>0.37101492291988297</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.167067408185603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -1435,8 +1490,12 @@
       <c r="O11" s="1">
         <v>0.35793101470351102</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2134274827215128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>16</v>
       </c>
@@ -1482,8 +1541,12 @@
       <c r="O12" s="1">
         <v>0.35177316251367602</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3000135351429338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>16</v>
       </c>
@@ -1529,8 +1592,12 @@
       <c r="O13" s="1">
         <v>0.366299172501027</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4433588116442118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>17</v>
       </c>
@@ -1576,8 +1643,12 @@
       <c r="O14" s="1">
         <v>0.35057286619891898</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8063898043480791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>17</v>
       </c>
@@ -1623,8 +1694,12 @@
       <c r="O15" s="1">
         <v>0.362636050131944</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9551044437449758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -1670,8 +1745,12 @@
       <c r="O16" s="1">
         <v>0.36012844970743602</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0426673666234181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1717,8 +1796,12 @@
       <c r="O17" s="1">
         <v>0.34450113453272901</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0763959878347271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1764,8 +1847,12 @@
       <c r="O18" s="1">
         <v>0.35106378898754997</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2044550236912328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1811,8 +1898,12 @@
       <c r="O19" s="1">
         <v>0.35733268547956898</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3353192418660709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1858,8 +1949,12 @@
       <c r="O20" s="1">
         <v>0.34860064228464199</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7385579516219389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1905,8 +2000,12 @@
       <c r="O21" s="1">
         <v>0.35037397645601798</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8252941892219683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1952,8 +2051,12 @@
       <c r="O22" s="1">
         <v>0.345796014856454</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.920416601861332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -1999,8 +2102,12 @@
       <c r="O23" s="1">
         <v>0.34563687756316902</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R23" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0321250129610902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -2046,8 +2153,12 @@
       <c r="O24" s="1">
         <v>0.34598058232051199</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R24" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0796164459589628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>18</v>
       </c>
@@ -2093,8 +2204,12 @@
       <c r="O25" s="1">
         <v>0.35583115151080802</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R25" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2382517150071508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>19</v>
       </c>
@@ -2140,8 +2255,12 @@
       <c r="O26" s="1">
         <v>0.33345163208259698</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6247004124181728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>19</v>
       </c>
@@ -2187,8 +2306,12 @@
       <c r="O27" s="1">
         <v>0.32783786818862298</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.696242794285292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>19</v>
       </c>
@@ -2234,8 +2357,12 @@
       <c r="O28" s="1">
         <v>0.33432608231743099</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8307881901568051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>19</v>
       </c>
@@ -2281,8 +2408,12 @@
       <c r="O29" s="1">
         <v>0.31880032411273501</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8156086629713732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>19</v>
       </c>
@@ -2328,8 +2459,12 @@
       <c r="O30" s="1">
         <v>0.313396466948069</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8873803816524539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>19</v>
       </c>
@@ -2375,8 +2510,12 @@
       <c r="O31" s="1">
         <v>0.31535781403415403</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R31" s="1">
+        <f t="shared" si="0"/>
+        <v>2.066791350447565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -2422,8 +2561,12 @@
       <c r="O32" s="1">
         <v>0.33869741130272102</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5952161714980329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>20</v>
       </c>
@@ -2469,8 +2612,12 @@
       <c r="O33" s="1">
         <v>0.345905523663328</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6923772362812151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>20</v>
       </c>
@@ -2516,8 +2663,12 @@
       <c r="O34" s="1">
         <v>0.36356578238958798</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.847039235812648</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>20</v>
       </c>
@@ -2563,8 +2714,12 @@
       <c r="O35" s="1">
         <v>0.34744119930554501</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8630295083170412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>20</v>
       </c>
@@ -2610,8 +2765,12 @@
       <c r="O36" s="1">
         <v>0.33719430341891199</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.898334538835416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>20</v>
       </c>
@@ -2657,8 +2816,12 @@
       <c r="O37" s="1">
         <v>0.343392735171825</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R37" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0238487596693648</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>21</v>
       </c>
@@ -2704,8 +2867,12 @@
       <c r="O38" s="1">
         <v>0.33675529569400597</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5264350115689558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>21</v>
       </c>
@@ -2751,8 +2918,12 @@
       <c r="O39" s="1">
         <v>0.34566058112626402</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R39" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6298749978738101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>21</v>
       </c>
@@ -2798,8 +2969,12 @@
       <c r="O40" s="1">
         <v>0.33055765856476099</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.64873622842776</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>21</v>
       </c>
@@ -2845,8 +3020,12 @@
       <c r="O41" s="1">
         <v>0.34600362403095303</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6286926598570199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>21</v>
       </c>
@@ -2892,8 +3071,12 @@
       <c r="O42" s="1">
         <v>0.33576042756756902</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R42" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8128513041115251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>21</v>
       </c>
@@ -2939,8 +3122,12 @@
       <c r="O43" s="1">
         <v>0.33170280937047297</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R43" s="1">
+        <f t="shared" si="0"/>
+        <v>1.659439511498132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>22</v>
       </c>
@@ -2986,8 +3173,12 @@
       <c r="O44" s="1">
         <v>0.305694127582752</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R44" s="1">
+        <f t="shared" si="0"/>
+        <v>1.313385616944454</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>22</v>
       </c>
@@ -3033,8 +3224,12 @@
       <c r="O45" s="1">
         <v>0.31687215228037002</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R45" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4632088468642048</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>22</v>
       </c>
@@ -3080,8 +3275,12 @@
       <c r="O46" s="1">
         <v>0.31733316371859899</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R46" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4410725254207259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>22</v>
       </c>
@@ -3127,8 +3326,12 @@
       <c r="O47" s="1">
         <v>0.30962255609289902</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R47" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4577581943907711</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>22</v>
       </c>
@@ -3174,8 +3377,12 @@
       <c r="O48" s="1">
         <v>0.32290434600863199</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R48" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5478830694128869</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>22</v>
       </c>
@@ -3221,8 +3428,12 @@
       <c r="O49" s="1">
         <v>0.31278250454457301</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R49" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5621575045445728</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>23</v>
       </c>
@@ -3268,8 +3479,12 @@
       <c r="O50" s="1">
         <v>0.30086176461550601</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R50" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2573404880197609</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>23</v>
       </c>
@@ -3315,8 +3530,12 @@
       <c r="O51" s="1">
         <v>0.32274292816278499</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3647030345457629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>23</v>
       </c>
@@ -3362,8 +3581,12 @@
       <c r="O52" s="1">
         <v>0.30240227186088797</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4179864975728851</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>23</v>
       </c>
@@ -3409,8 +3632,12 @@
       <c r="O53" s="1">
         <v>0.30078614948084198</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R53" s="1">
+        <f t="shared" si="0"/>
+        <v>1.394006894161693</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>23</v>
       </c>
@@ -3456,8 +3683,12 @@
       <c r="O54" s="1">
         <v>0.31609938563307799</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R54" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4904823643564822</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>23</v>
       </c>
@@ -3503,8 +3734,12 @@
       <c r="O55" s="1">
         <v>0.29846557509035798</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R55" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4793512133882301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>24</v>
       </c>
@@ -3550,8 +3785,12 @@
       <c r="O56" s="1">
         <v>0.27869638381457101</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R56" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1543453199847831</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>24</v>
       </c>
@@ -3597,8 +3836,12 @@
       <c r="O57" s="1">
         <v>0.29463952487443101</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R57" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2354081418957068</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>24</v>
       </c>
@@ -3644,8 +3887,12 @@
       <c r="O58" s="1">
         <v>0.28232882274973697</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R58" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2474937163667579</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>24</v>
       </c>
@@ -3691,8 +3938,12 @@
       <c r="O59" s="1">
         <v>0.28316630965313</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R59" s="1">
+        <f t="shared" si="0"/>
+        <v>1.293706203270151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>24</v>
       </c>
@@ -3738,8 +3989,12 @@
       <c r="O60" s="1">
         <v>0.27682974290926798</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R60" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3247233599305441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>24</v>
       </c>
@@ -3785,8 +4040,12 @@
       <c r="O61" s="1">
         <v>0.30070035138886902</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R61" s="1">
+        <f t="shared" si="0"/>
+        <v>1.446415776920783</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>25</v>
       </c>
@@ -3832,8 +4091,12 @@
       <c r="O62" s="1">
         <v>0.27724776313796501</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R62" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1103222312230709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>25</v>
       </c>
@@ -3879,8 +4142,12 @@
       <c r="O63" s="1">
         <v>0.28675553238208601</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R63" s="1">
+        <f t="shared" si="0"/>
+        <v>1.170758191956554</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>25</v>
       </c>
@@ -3926,8 +4193,12 @@
       <c r="O64" s="1">
         <v>0.27314554102598299</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R64" s="1">
+        <f t="shared" si="0"/>
+        <v>1.204963205137465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>25</v>
       </c>
@@ -3973,8 +4244,12 @@
       <c r="O65" s="1">
         <v>0.27231054971137703</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R65" s="1">
+        <f t="shared" si="0"/>
+        <v>1.289538988302851</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>25</v>
       </c>
@@ -4020,8 +4295,12 @@
       <c r="O66" s="1">
         <v>0.29652120926787401</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R66" s="1">
+        <f t="shared" si="0"/>
+        <v>1.154225275152174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>25</v>
       </c>
@@ -4067,8 +4346,12 @@
       <c r="O67" s="1">
         <v>0.27616181143573898</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R67" s="1">
+        <f t="shared" ref="R67:R97" si="1">SUM(M67,N67,O67)</f>
+        <v>1.3813109999516098</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>26</v>
       </c>
@@ -4114,8 +4397,12 @@
       <c r="O68" s="1">
         <v>0.26530231146861699</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R68" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0305461208006139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>26</v>
       </c>
@@ -4161,8 +4448,12 @@
       <c r="O69" s="1">
         <v>0.244135467951897</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R69" s="1">
+        <f t="shared" si="1"/>
+        <v>1.017691319015726</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>26</v>
       </c>
@@ -4208,8 +4499,12 @@
       <c r="O70" s="1">
         <v>0.25562816927232901</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R70" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1096584430204721</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>26</v>
       </c>
@@ -4255,8 +4550,12 @@
       <c r="O71" s="1">
         <v>0.261686887295076</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R71" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1718782350367041</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>26</v>
       </c>
@@ -4302,8 +4601,12 @@
       <c r="O72" s="1">
         <v>0.25204102605448803</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R72" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2053400059455961</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>26</v>
       </c>
@@ -4349,8 +4652,12 @@
       <c r="O73" s="1">
         <v>0.27327805175733699</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R73" s="1">
+        <f t="shared" si="1"/>
+        <v>1.279546668778613</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>27</v>
       </c>
@@ -4396,8 +4703,12 @@
       <c r="O74" s="1">
         <v>0.245108159190842</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R74" s="1">
+        <f t="shared" si="1"/>
+        <v>0.93790428773692214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>27</v>
       </c>
@@ -4443,8 +4754,12 @@
       <c r="O75" s="1">
         <v>0.25142908460227897</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R75" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99243494451863101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>27</v>
       </c>
@@ -4490,8 +4805,12 @@
       <c r="O76" s="1">
         <v>0.238116212509284</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R76" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0020563852782949</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>27</v>
       </c>
@@ -4537,8 +4856,12 @@
       <c r="O77" s="1">
         <v>0.24983128458093701</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R77" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0782733029051961</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>27</v>
       </c>
@@ -4584,8 +4907,12 @@
       <c r="O78" s="1">
         <v>0.25617068071867299</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R78" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1383478906566691</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>27</v>
       </c>
@@ -4631,8 +4958,12 @@
       <c r="O79" s="1">
         <v>0.242906952391166</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R79" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1422297727526001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>28</v>
       </c>
@@ -4678,8 +5009,12 @@
       <c r="O80" s="1">
         <v>0.25744024763262202</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R80" s="1">
+        <f t="shared" si="1"/>
+        <v>0.90850318446679612</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>28</v>
       </c>
@@ -4725,8 +5060,12 @@
       <c r="O81" s="1">
         <v>0.231672310878556</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R81" s="1">
+        <f t="shared" si="1"/>
+        <v>0.896655091021761</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>28</v>
       </c>
@@ -4772,8 +5111,12 @@
       <c r="O82" s="1">
         <v>0.23123875127827201</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92655855282626198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>28</v>
       </c>
@@ -4819,8 +5162,12 @@
       <c r="O83" s="1">
         <v>0.25467727489578101</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R83" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0302121745464989</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>28</v>
       </c>
@@ -4866,8 +5213,12 @@
       <c r="O84" s="1">
         <v>0.250894653462926</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R84" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0518093674075379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>28</v>
       </c>
@@ -4913,8 +5264,12 @@
       <c r="O85" s="1">
         <v>0.235857441797474</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R85" s="1">
+        <f t="shared" si="1"/>
+        <v>1.057130979396165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>29</v>
       </c>
@@ -4960,8 +5315,12 @@
       <c r="O86" s="1">
         <v>0.244932830677073</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83610943955269801</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>29</v>
       </c>
@@ -5007,8 +5366,12 @@
       <c r="O87" s="1">
         <v>0.240051836614325</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R87" s="1">
+        <f t="shared" si="1"/>
+        <v>0.72194545363560092</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>29</v>
       </c>
@@ -5054,8 +5417,12 @@
       <c r="O88" s="1">
         <v>0.24868924694941</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R88" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91507007710350596</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>29</v>
       </c>
@@ -5101,8 +5468,12 @@
       <c r="O89" s="1">
         <v>0.215460069286175</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R89" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87306736327943602</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>29</v>
       </c>
@@ -5148,8 +5519,12 @@
       <c r="O90" s="1">
         <v>0.22353408681852399</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R90" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92521851519840004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>29</v>
       </c>
@@ -5195,8 +5570,12 @@
       <c r="O91" s="1">
         <v>0.24180323223054301</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R91" s="1">
+        <f t="shared" si="1"/>
+        <v>1.001067824659615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>30</v>
       </c>
@@ -5242,8 +5621,12 @@
       <c r="O92" s="1">
         <v>0.225196124731011</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.64723867792250001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>30</v>
       </c>
@@ -5289,8 +5672,12 @@
       <c r="O93" s="1">
         <v>0.20337572998565301</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R93" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61060977253884396</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>30</v>
       </c>
@@ -5336,8 +5723,12 @@
       <c r="O94" s="1">
         <v>0.22598197592215</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R94" s="1">
+        <f t="shared" si="1"/>
+        <v>0.65234367804980897</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>30</v>
       </c>
@@ -5383,8 +5774,12 @@
       <c r="O95" s="1">
         <v>0.19365934554460101</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R95" s="1">
+        <f t="shared" si="1"/>
+        <v>0.76853911981131406</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>30</v>
       </c>
@@ -5430,8 +5825,12 @@
       <c r="O96" s="1">
         <v>0.21057364170898801</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R96" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83577404649689102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>30</v>
       </c>
@@ -5476,6 +5875,10 @@
       </c>
       <c r="O97" s="1">
         <v>0.19116708563920001</v>
+      </c>
+      <c r="R97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82823846246216704</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_tabela_programmed/resultados_tabela.xlsx
+++ b/resultados_tabela_programmed/resultados_tabela.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68ab3f4a40a4996c/TCC/RLLib_códigos/tcc-final-models/tcc-final-models/resultados_tabela_programmed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0F711A01-BE3E-4E3D-A8EE-FB75DC239CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{0F711A01-BE3E-4E3D-A8EE-FB75DC239CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDC7067F-7F0C-4B83-A1D3-C7ED56614E0A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultados_tabela" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Temperatura ambiente</t>
   </si>
@@ -66,11 +79,14 @@
   <si>
     <t>Custo de água total (R$)</t>
   </si>
+  <si>
+    <t>Custo total (R$)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -915,11 +931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="S80" sqref="S80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +944,7 @@
     <col min="2" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -974,8 +990,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>15</v>
       </c>
@@ -1021,8 +1040,12 @@
       <c r="O2" s="1">
         <v>0.40054408310453299</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R2" s="1">
+        <f>SUM(M2,N2,O2)</f>
+        <v>2.3679270602980798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>15</v>
       </c>
@@ -1068,8 +1091,12 @@
       <c r="O3" s="1">
         <v>0.37973416617174599</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R66" si="0">SUM(M3,N3,O3)</f>
+        <v>2.7315630810867391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>15</v>
       </c>
@@ -1115,8 +1142,12 @@
       <c r="O4" s="1">
         <v>0.40934134820720097</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.914809448987731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>15</v>
       </c>
@@ -1162,8 +1193,12 @@
       <c r="O5" s="1">
         <v>0.3816876267912</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3053924277939122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>15</v>
       </c>
@@ -1209,8 +1244,12 @@
       <c r="O6" s="1">
         <v>0.38507520103206599</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3823659877304162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>15</v>
       </c>
@@ -1256,8 +1295,12 @@
       <c r="O7" s="1">
         <v>0.37560519359446298</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7735652862087607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>16</v>
       </c>
@@ -1303,8 +1346,12 @@
       <c r="O8" s="1">
         <v>0.36946227245581498</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.33956511326915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>16</v>
       </c>
@@ -1350,8 +1397,12 @@
       <c r="O9" s="1">
         <v>0.37090154551676102</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6954006764759613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -1397,8 +1448,12 @@
       <c r="O10" s="1">
         <v>0.36891243721594802</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7243379635578009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -1444,8 +1499,12 @@
       <c r="O11" s="1">
         <v>0.38810729237990199</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.911392753755266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>16</v>
       </c>
@@ -1491,8 +1550,12 @@
       <c r="O12" s="1">
         <v>0.379639794825957</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1960795272287799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>16</v>
       </c>
@@ -1538,8 +1601,12 @@
       <c r="O13" s="1">
         <v>0.38070707631484901</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6201698442392454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>17</v>
       </c>
@@ -1585,8 +1652,12 @@
       <c r="O14" s="1">
         <v>0.37431508602096802</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2244072903941121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>17</v>
       </c>
@@ -1632,8 +1703,12 @@
       <c r="O15" s="1">
         <v>0.387924448901588</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R15" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5497196649457949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -1679,8 +1754,12 @@
       <c r="O16" s="1">
         <v>0.356766460470612</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8314047596542524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1726,8 +1805,12 @@
       <c r="O17" s="1">
         <v>0.38534466392045502</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.023630144036519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1773,8 +1856,12 @@
       <c r="O18" s="1">
         <v>0.38323899271565798</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <f t="shared" si="0"/>
+        <v>3.391274488676622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1820,8 +1907,12 @@
       <c r="O19" s="1">
         <v>0.37520978640409502</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4702417037564013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1867,8 +1958,12 @@
       <c r="O20" s="1">
         <v>0.36051505003571099</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2251072634786939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1914,8 +2009,12 @@
       <c r="O21" s="1">
         <v>0.36865663368016799</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <f t="shared" si="0"/>
+        <v>2.587028993228849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1961,8 +2060,12 @@
       <c r="O22" s="1">
         <v>0.36813104817350101</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R22" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8122002039940015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -2008,8 +2111,12 @@
       <c r="O23" s="1">
         <v>0.36642983050179601</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R23" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1535238143718178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -2055,8 +2162,12 @@
       <c r="O24" s="1">
         <v>0.36166107008470699</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R24" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5103773970028613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>18</v>
       </c>
@@ -2102,8 +2213,12 @@
       <c r="O25" s="1">
         <v>0.368642725648687</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R25" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8608103044105659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>19</v>
       </c>
@@ -2149,8 +2264,12 @@
       <c r="O26" s="1">
         <v>0.34423499108732197</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R26" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1443023687222431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>19</v>
       </c>
@@ -2196,8 +2315,12 @@
       <c r="O27" s="1">
         <v>0.34574312185015499</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R27" s="1">
+        <f t="shared" si="0"/>
+        <v>2.372494898724423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>19</v>
       </c>
@@ -2243,8 +2366,12 @@
       <c r="O28" s="1">
         <v>0.33587094764525699</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R28" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7822752167330749</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>19</v>
       </c>
@@ -2290,8 +2417,12 @@
       <c r="O29" s="1">
         <v>0.33414782886799199</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R29" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9124501464538142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>19</v>
       </c>
@@ -2337,8 +2468,12 @@
       <c r="O30" s="1">
         <v>0.36057432428911002</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R30" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0954892268666914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>19</v>
       </c>
@@ -2384,8 +2519,12 @@
       <c r="O31" s="1">
         <v>0.35647849022529599</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R31" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4018774460650381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -2431,8 +2570,12 @@
       <c r="O32" s="1">
         <v>0.327655998962678</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8964255064017039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>20</v>
       </c>
@@ -2478,8 +2621,12 @@
       <c r="O33" s="1">
         <v>0.32871874587287297</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R33" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1906442723240058</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>20</v>
       </c>
@@ -2525,8 +2672,12 @@
       <c r="O34" s="1">
         <v>0.32373331740970102</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <f t="shared" si="0"/>
+        <v>2.210430126842339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>20</v>
       </c>
@@ -2572,8 +2723,12 @@
       <c r="O35" s="1">
         <v>0.32502618985300402</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R35" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4993258314184379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>20</v>
       </c>
@@ -2619,8 +2774,12 @@
       <c r="O36" s="1">
         <v>0.327174280917858</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R36" s="1">
+        <f t="shared" si="0"/>
+        <v>2.909422524478039</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>20</v>
       </c>
@@ -2666,8 +2825,12 @@
       <c r="O37" s="1">
         <v>0.32740577463959902</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R37" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0846504540154416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>21</v>
       </c>
@@ -2713,8 +2876,12 @@
       <c r="O38" s="1">
         <v>0.30146276188966298</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.798920208698173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>21</v>
       </c>
@@ -2760,8 +2927,12 @@
       <c r="O39" s="1">
         <v>0.30670171301343302</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R39" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0808329230581979</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>21</v>
       </c>
@@ -2807,8 +2978,12 @@
       <c r="O40" s="1">
         <v>0.305186730716413</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R40" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2449367365558022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>21</v>
       </c>
@@ -2854,8 +3029,12 @@
       <c r="O41" s="1">
         <v>0.315419334194534</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R41" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2534122545455189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>21</v>
       </c>
@@ -2901,8 +3080,12 @@
       <c r="O42" s="1">
         <v>0.30853420175125701</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R42" s="1">
+        <f t="shared" si="0"/>
+        <v>2.578392360620779</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>21</v>
       </c>
@@ -2948,8 +3131,12 @@
       <c r="O43" s="1">
         <v>0.329423312750038</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R43" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1701520607412035</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>22</v>
       </c>
@@ -2995,8 +3182,12 @@
       <c r="O44" s="1">
         <v>0.30027192912878697</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R44" s="1">
+        <f t="shared" si="0"/>
+        <v>1.620303840744147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>22</v>
       </c>
@@ -3042,8 +3233,12 @@
       <c r="O45" s="1">
         <v>0.308784560837083</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R45" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9239104488985819</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>22</v>
       </c>
@@ -3089,8 +3284,12 @@
       <c r="O46" s="1">
         <v>0.29700749091839901</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R46" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0898425991863672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>22</v>
       </c>
@@ -3136,8 +3335,12 @@
       <c r="O47" s="1">
         <v>0.29903043623687797</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R47" s="1">
+        <f t="shared" si="0"/>
+        <v>2.369049960818443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>22</v>
       </c>
@@ -3183,8 +3386,12 @@
       <c r="O48" s="1">
         <v>0.31483369058155097</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R48" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7154010463614418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>22</v>
       </c>
@@ -3230,8 +3437,12 @@
       <c r="O49" s="1">
         <v>0.31256580474304002</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R49" s="1">
+        <f t="shared" si="0"/>
+        <v>2.857826448941772</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>23</v>
       </c>
@@ -3277,8 +3488,12 @@
       <c r="O50" s="1">
         <v>0.28495432296295498</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R50" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5264826908830791</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>23</v>
       </c>
@@ -3324,8 +3539,12 @@
       <c r="O51" s="1">
         <v>0.30259186174602398</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7287443501622559</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>23</v>
       </c>
@@ -3371,8 +3590,12 @@
       <c r="O52" s="1">
         <v>0.30697832205685499</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7004889705173181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>23</v>
       </c>
@@ -3418,8 +3641,12 @@
       <c r="O53" s="1">
         <v>0.28638931488981301</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R53" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0691410992699208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>23</v>
       </c>
@@ -3465,8 +3692,12 @@
       <c r="O54" s="1">
         <v>0.29280880453541103</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R54" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5386315091870784</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>23</v>
       </c>
@@ -3512,8 +3743,12 @@
       <c r="O55" s="1">
         <v>0.296868452081476</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R55" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7584083432397972</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>24</v>
       </c>
@@ -3559,8 +3794,12 @@
       <c r="O56" s="1">
         <v>0.278901678564559</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R56" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4462846634073732</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>24</v>
       </c>
@@ -3606,8 +3845,12 @@
       <c r="O57" s="1">
         <v>0.267434240161808</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R57" s="1">
+        <f t="shared" si="0"/>
+        <v>1.649068995588745</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>24</v>
       </c>
@@ -3653,8 +3896,12 @@
       <c r="O58" s="1">
         <v>0.283631929541238</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R58" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8039510863452182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>24</v>
       </c>
@@ -3700,8 +3947,12 @@
       <c r="O59" s="1">
         <v>0.29440662702109599</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R59" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0205174468310259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>24</v>
       </c>
@@ -3747,8 +3998,12 @@
       <c r="O60" s="1">
         <v>0.27874591432399498</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R60" s="1">
+        <f t="shared" si="0"/>
+        <v>1.905065068723915</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>24</v>
       </c>
@@ -3794,8 +4049,12 @@
       <c r="O61" s="1">
         <v>0.28523050363550601</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R61" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6827943471914102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>25</v>
       </c>
@@ -3841,8 +4100,12 @@
       <c r="O62" s="1">
         <v>0.281941143407548</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R62" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3850510763784891</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>25</v>
       </c>
@@ -3888,8 +4151,12 @@
       <c r="O63" s="1">
         <v>0.27680274749644002</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R63" s="1">
+        <f t="shared" si="0"/>
+        <v>1.505777929582192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>25</v>
       </c>
@@ -3935,8 +4202,12 @@
       <c r="O64" s="1">
         <v>0.27728393002841201</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R64" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8114701118789771</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>25</v>
       </c>
@@ -3982,8 +4253,12 @@
       <c r="O65" s="1">
         <v>0.278856636090281</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R65" s="1">
+        <f t="shared" si="0"/>
+        <v>2.101088009124954</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>25</v>
       </c>
@@ -4029,8 +4304,12 @@
       <c r="O66" s="1">
         <v>0.26857293270376698</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R66" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0929558967842912</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>25</v>
       </c>
@@ -4076,8 +4355,12 @@
       <c r="O67" s="1">
         <v>0.26929440849990599</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R67" s="1">
+        <f t="shared" ref="R67:R97" si="1">SUM(M67,N67,O67)</f>
+        <v>2.4715337544664027</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>26</v>
       </c>
@@ -4123,8 +4406,12 @@
       <c r="O68" s="1">
         <v>0.28854600634074301</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R68" s="1">
+        <f t="shared" si="1"/>
+        <v>1.423960905202972</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>26</v>
       </c>
@@ -4170,8 +4457,12 @@
       <c r="O69" s="1">
         <v>0.28530337424531699</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R69" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4458813863125062</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>26</v>
       </c>
@@ -4218,8 +4509,12 @@
         <v>0.28191069081569597</v>
       </c>
       <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R70" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6109585767608809</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>26</v>
       </c>
@@ -4266,8 +4561,12 @@
         <v>0.27489705493553102</v>
       </c>
       <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R71" s="1">
+        <f t="shared" si="1"/>
+        <v>1.683253444989814</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>26</v>
       </c>
@@ -4313,8 +4612,12 @@
       <c r="O72" s="1">
         <v>0.28098606061683601</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R72" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0299718968726759</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>26</v>
       </c>
@@ -4360,8 +4663,12 @@
       <c r="O73" s="1">
         <v>0.27541522226106002</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R73" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2923487412589072</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>27</v>
       </c>
@@ -4407,8 +4714,12 @@
       <c r="O74" s="1">
         <v>0.29264359361777598</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R74" s="1">
+        <f t="shared" si="1"/>
+        <v>1.366994651874528</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>27</v>
       </c>
@@ -4454,8 +4765,12 @@
       <c r="O75" s="1">
         <v>0.268345802684894</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R75" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5263085607198799</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>27</v>
       </c>
@@ -4501,8 +4816,12 @@
       <c r="O76" s="1">
         <v>0.279961972178845</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R76" s="1">
+        <f t="shared" si="1"/>
+        <v>1.74569070279526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>27</v>
       </c>
@@ -4548,8 +4867,12 @@
       <c r="O77" s="1">
         <v>0.30877622236661201</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R77" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1472886329492029</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>27</v>
       </c>
@@ -4595,8 +4918,12 @@
       <c r="O78" s="1">
         <v>0.281949057697433</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R78" s="1">
+        <f t="shared" si="1"/>
+        <v>2.260693741608196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>27</v>
       </c>
@@ -4642,8 +4969,12 @@
       <c r="O79" s="1">
         <v>0.28827902795926702</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R79" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4958907463142861</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>28</v>
       </c>
@@ -4689,8 +5020,12 @@
       <c r="O80" s="1">
         <v>0.270211608034651</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R80" s="1">
+        <f t="shared" si="1"/>
+        <v>1.253278990040585</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>28</v>
       </c>
@@ -4736,8 +5071,12 @@
       <c r="O81" s="1">
         <v>0.27424272179762199</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R81" s="1">
+        <f t="shared" si="1"/>
+        <v>1.48892711923393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>28</v>
       </c>
@@ -4783,8 +5122,12 @@
       <c r="O82" s="1">
         <v>0.29912213432114199</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R82" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7332072446380198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>28</v>
       </c>
@@ -4830,8 +5173,12 @@
       <c r="O83" s="1">
         <v>0.27320423822710699</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R83" s="1">
+        <f t="shared" si="1"/>
+        <v>1.882936511555279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>28</v>
       </c>
@@ -4877,8 +5224,12 @@
       <c r="O84" s="1">
         <v>0.28816515231230899</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R84" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1988814801046628</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>28</v>
       </c>
@@ -4924,8 +5275,12 @@
       <c r="O85" s="1">
         <v>0.293156891744633</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R85" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3207313753194891</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>29</v>
       </c>
@@ -4971,8 +5326,12 @@
       <c r="O86" s="1">
         <v>0.28701877134998899</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R86" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2192457170740618</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>29</v>
       </c>
@@ -5018,8 +5377,12 @@
       <c r="O87" s="1">
         <v>0.28234567575712399</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R87" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3442818514336481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>29</v>
       </c>
@@ -5065,8 +5428,12 @@
       <c r="O88" s="1">
         <v>0.25774183142919899</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R88" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4821567345531599</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>29</v>
       </c>
@@ -5112,8 +5479,12 @@
       <c r="O89" s="1">
         <v>0.26165990924538701</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R89" s="1">
+        <f t="shared" si="1"/>
+        <v>1.668032245702858</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>29</v>
       </c>
@@ -5159,8 +5530,12 @@
       <c r="O90" s="1">
         <v>0.286060566967409</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R90" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8856563225757701</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>29</v>
       </c>
@@ -5206,8 +5581,12 @@
       <c r="O91" s="1">
         <v>0.273621375249683</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R91" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0861825395615883</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>30</v>
       </c>
@@ -5253,8 +5632,12 @@
       <c r="O92" s="1">
         <v>0.247814840874995</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R92" s="1">
+        <f t="shared" si="1"/>
+        <v>1.045325483065795</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>30</v>
       </c>
@@ -5300,8 +5683,12 @@
       <c r="O93" s="1">
         <v>0.28173405418546099</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R93" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2505913393973129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>30</v>
       </c>
@@ -5347,8 +5734,12 @@
       <c r="O94" s="1">
         <v>0.26816550287117702</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R94" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3365697538671251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>30</v>
       </c>
@@ -5394,8 +5785,12 @@
       <c r="O95" s="1">
         <v>0.263614982055139</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R95" s="1">
+        <f t="shared" si="1"/>
+        <v>1.475142465185179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>30</v>
       </c>
@@ -5441,8 +5836,12 @@
       <c r="O96" s="1">
         <v>0.231179460600208</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R96" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5602858487421809</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>30</v>
       </c>
@@ -5487,6 +5886,10 @@
       </c>
       <c r="O97" s="1">
         <v>0.27468715319444797</v>
+      </c>
+      <c r="R97" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9695435462230708</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_tabela_programmed/resultados_tabela.xlsx
+++ b/resultados_tabela_programmed/resultados_tabela.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68ab3f4a40a4996c/TCC/RLLib_códigos/tcc-final-models/tcc-final-models/resultados_tabela_programmed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB9ACFDF-E06B-4A20-9779-E09038A10DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{EB9ACFDF-E06B-4A20-9779-E09038A10DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F60D11F5-303B-4217-9B69-451EFEA43764}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultados_tabela" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Temperatura ambiente</t>
   </si>
@@ -66,11 +79,14 @@
   <si>
     <t>Custo de água total</t>
   </si>
+  <si>
+    <t>Custo total (R$)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -905,11 +921,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="U78" sqref="U78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +933,7 @@
     <col min="1" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,8 +979,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>15</v>
       </c>
@@ -1010,8 +1029,12 @@
       <c r="O2" s="1">
         <v>0.37215256353034099</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1">
+        <f>SUM(M2,N2,O2)</f>
+        <v>1.6921348337851518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -1057,8 +1080,12 @@
       <c r="O3" s="1">
         <v>0.377578491529386</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q66" si="0">SUM(M3,N3,O3)</f>
+        <v>1.993242507312375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -1104,8 +1131,12 @@
       <c r="O4" s="1">
         <v>0.37450035292403899</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.108720226631287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -1151,8 +1182,12 @@
       <c r="O5" s="1">
         <v>0.40233447171256098</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0282653278440259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -1198,8 +1233,12 @@
       <c r="O6" s="1">
         <v>0.37246641626807903</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1191118112563827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -1245,8 +1284,12 @@
       <c r="O7" s="1">
         <v>0.39144526337208901</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3333530604878079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>16</v>
       </c>
@@ -1292,8 +1335,12 @@
       <c r="O8" s="1">
         <v>0.37695579766818998</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8281224684463351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -1339,8 +1386,12 @@
       <c r="O9" s="1">
         <v>0.38217255746034001</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7783090943033031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>16</v>
       </c>
@@ -1386,8 +1437,12 @@
       <c r="O10" s="1">
         <v>0.38012167441792699</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9649727513402462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>16</v>
       </c>
@@ -1433,8 +1488,12 @@
       <c r="O11" s="1">
         <v>0.38734455467885298</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9334748750707929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>16</v>
       </c>
@@ -1480,8 +1539,12 @@
       <c r="O12" s="1">
         <v>0.38152430037416801</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0729923816559181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>16</v>
       </c>
@@ -1527,8 +1590,12 @@
       <c r="O13" s="1">
         <v>0.39590858684945801</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.215311957088264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>17</v>
       </c>
@@ -1574,8 +1641,12 @@
       <c r="O14" s="1">
         <v>0.35352411888794699</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.601048948207789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>17</v>
       </c>
@@ -1621,8 +1692,12 @@
       <c r="O15" s="1">
         <v>0.35662115311807802</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.626359631778528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -1668,8 +1743,12 @@
       <c r="O16" s="1">
         <v>0.356008587176179</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9046468823029801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -1715,8 +1794,12 @@
       <c r="O17" s="1">
         <v>0.36863059158271</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8791368027065669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1762,8 +1845,12 @@
       <c r="O18" s="1">
         <v>0.36722130558445998</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9510723778284349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1809,8 +1896,12 @@
       <c r="O19" s="1">
         <v>0.35989244251914398</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.922061776167086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1856,8 +1947,12 @@
       <c r="O20" s="1">
         <v>0.34483297453894501</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6084783725869549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1903,8 +1998,12 @@
       <c r="O21" s="1">
         <v>0.36313671878315601</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5440888501990639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1950,8 +2049,12 @@
       <c r="O22" s="1">
         <v>0.350991674043519</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7302345905323142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -1997,8 +2100,12 @@
       <c r="O23" s="1">
         <v>0.35827248923913502</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6965145162765798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -2044,8 +2151,12 @@
       <c r="O24" s="1">
         <v>0.35242935963314098</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.775897451323353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>18</v>
       </c>
@@ -2091,8 +2202,12 @@
       <c r="O25" s="1">
         <v>0.35362990188987298</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.875075831282496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -2138,8 +2253,12 @@
       <c r="O26" s="1">
         <v>0.33915531922561198</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.466311349042301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>19</v>
       </c>
@@ -2185,8 +2304,12 @@
       <c r="O27" s="1">
         <v>0.34496951230405198</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5980741250845281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>19</v>
       </c>
@@ -2232,8 +2355,12 @@
       <c r="O28" s="1">
         <v>0.34273854096238299</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.619889255980655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>19</v>
       </c>
@@ -2279,8 +2406,12 @@
       <c r="O29" s="1">
         <v>0.35760759539298398</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.714028702428642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>19</v>
       </c>
@@ -2326,8 +2457,12 @@
       <c r="O30" s="1">
         <v>0.36261974686589798</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.771726139925256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>19</v>
       </c>
@@ -2373,8 +2508,12 @@
       <c r="O31" s="1">
         <v>0.34960975795942401</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8373251908981458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>20</v>
       </c>
@@ -2420,8 +2559,12 @@
       <c r="O32" s="1">
         <v>0.34597185284972398</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5780356854371338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>20</v>
       </c>
@@ -2467,8 +2610,12 @@
       <c r="O33" s="1">
         <v>0.33279653650511898</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6048772052441542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>20</v>
       </c>
@@ -2514,8 +2661,12 @@
       <c r="O34" s="1">
         <v>0.34190845186389202</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.76075064888828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>20</v>
       </c>
@@ -2561,8 +2712,12 @@
       <c r="O35" s="1">
         <v>0.34156266563468601</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7169004174649001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>20</v>
       </c>
@@ -2608,8 +2763,12 @@
       <c r="O36" s="1">
         <v>0.35570819784324798</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1">
+        <f t="shared" si="0"/>
+        <v>2.010828774589474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>20</v>
       </c>
@@ -2655,8 +2814,12 @@
       <c r="O37" s="1">
         <v>0.31725275178943702</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8382678392768559</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>21</v>
       </c>
@@ -2702,8 +2865,12 @@
       <c r="O38" s="1">
         <v>0.34070874409375002</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.396503069201154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>21</v>
       </c>
@@ -2749,8 +2916,12 @@
       <c r="O39" s="1">
         <v>0.34225799846175498</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q39" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4825975274121141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>21</v>
       </c>
@@ -2796,8 +2967,12 @@
       <c r="O40" s="1">
         <v>0.33740995597222201</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7582716654759549</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>21</v>
       </c>
@@ -2843,8 +3018,12 @@
       <c r="O41" s="1">
         <v>0.30852260018607502</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.493496011779905</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>21</v>
       </c>
@@ -2890,8 +3069,12 @@
       <c r="O42" s="1">
         <v>0.33241316691711797</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q42" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4457961503120351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>21</v>
       </c>
@@ -2937,8 +3120,12 @@
       <c r="O43" s="1">
         <v>0.32392277674355702</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q43" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6019165743275641</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>22</v>
       </c>
@@ -2984,8 +3171,12 @@
       <c r="O44" s="1">
         <v>0.32952355971404901</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q44" s="1">
+        <f t="shared" si="0"/>
+        <v>1.318551928030296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>22</v>
       </c>
@@ -3031,8 +3222,12 @@
       <c r="O45" s="1">
         <v>0.31266136681062201</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q45" s="1">
+        <f t="shared" si="0"/>
+        <v>1.562172010572253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>22</v>
       </c>
@@ -3078,8 +3273,12 @@
       <c r="O46" s="1">
         <v>0.31673659836183399</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q46" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6289936903965019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>22</v>
       </c>
@@ -3125,8 +3324,12 @@
       <c r="O47" s="1">
         <v>0.29304034155601799</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q47" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3575757968119779</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>22</v>
       </c>
@@ -3172,8 +3375,12 @@
       <c r="O48" s="1">
         <v>0.30282268696244602</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q48" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5476595829775779</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>22</v>
       </c>
@@ -3219,8 +3426,12 @@
       <c r="O49" s="1">
         <v>0.30812152890212302</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q49" s="1">
+        <f t="shared" si="0"/>
+        <v>1.471964615852523</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>23</v>
       </c>
@@ -3266,8 +3477,12 @@
       <c r="O50" s="1">
         <v>0.27145805421188102</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q50" s="1">
+        <f t="shared" si="0"/>
+        <v>1.044525435329954</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>23</v>
       </c>
@@ -3313,8 +3528,12 @@
       <c r="O51" s="1">
         <v>0.30579689728499798</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.175187855465998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>23</v>
       </c>
@@ -3360,8 +3579,12 @@
       <c r="O52" s="1">
         <v>0.28666815167120602</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4417727750411311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>23</v>
       </c>
@@ -3407,8 +3630,12 @@
       <c r="O53" s="1">
         <v>0.30061986071445601</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q53" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1504452179538189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>23</v>
       </c>
@@ -3454,8 +3681,12 @@
       <c r="O54" s="1">
         <v>0.308543784067282</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q54" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3786856350598431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>23</v>
       </c>
@@ -3501,8 +3732,12 @@
       <c r="O55" s="1">
         <v>0.29215398112209201</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q55" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2898436992474331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>24</v>
       </c>
@@ -3548,8 +3783,12 @@
       <c r="O56" s="1">
         <v>0.28675553238208601</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q56" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2170392198336091</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>24</v>
       </c>
@@ -3595,8 +3834,12 @@
       <c r="O57" s="1">
         <v>0.29302921371505303</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q57" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1946169797578701</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>24</v>
       </c>
@@ -3642,8 +3885,12 @@
       <c r="O58" s="1">
         <v>0.27856790491301497</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q58" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3543569152629789</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>24</v>
       </c>
@@ -3689,8 +3936,12 @@
       <c r="O59" s="1">
         <v>0.28838519356679199</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q59" s="1">
+        <f t="shared" si="0"/>
+        <v>1.128500443490922</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>24</v>
       </c>
@@ -3736,8 +3987,12 @@
       <c r="O60" s="1">
         <v>0.28282586830803702</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q60" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2013506948550221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>24</v>
       </c>
@@ -3783,8 +4038,12 @@
       <c r="O61" s="1">
         <v>0.280807371125467</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q61" s="1">
+        <f t="shared" si="0"/>
+        <v>1.379326875870178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>25</v>
       </c>
@@ -3830,8 +4089,12 @@
       <c r="O62" s="1">
         <v>0.24660020550210299</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84021013947018108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>25</v>
       </c>
@@ -3877,8 +4140,12 @@
       <c r="O63" s="1">
         <v>0.25116726102243597</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q63" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93880556558787998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>25</v>
       </c>
@@ -3924,8 +4191,12 @@
       <c r="O64" s="1">
         <v>0.24119288738863701</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q64" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1100705484178299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>25</v>
       </c>
@@ -3971,8 +4242,12 @@
       <c r="O65" s="1">
         <v>0.25376572367355599</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98989427225885707</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>25</v>
       </c>
@@ -4018,8 +4293,12 @@
       <c r="O66" s="1">
         <v>0.27316223891049402</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q66" s="1">
+        <f t="shared" si="0"/>
+        <v>1.428793451468588</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>25</v>
       </c>
@@ -4065,8 +4344,12 @@
       <c r="O67" s="1">
         <v>0.25792729893718702</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q67" s="1">
+        <f t="shared" ref="Q67:Q97" si="1">SUM(M67,N67,O67)</f>
+        <v>1.4147925386816511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>26</v>
       </c>
@@ -4112,8 +4395,12 @@
       <c r="O68" s="1">
         <v>0.25187734860125699</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q68" s="1">
+        <f t="shared" si="1"/>
+        <v>0.899838344486807</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>26</v>
       </c>
@@ -4159,8 +4446,12 @@
       <c r="O69" s="1">
         <v>0.242716437410889</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q69" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99886625662277695</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>26</v>
       </c>
@@ -4206,8 +4497,12 @@
       <c r="O70" s="1">
         <v>0.24097304372244499</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q70" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1589251794547231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>26</v>
       </c>
@@ -4253,8 +4548,12 @@
       <c r="O71" s="1">
         <v>0.28120443032646603</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q71" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0158524826012889</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>26</v>
       </c>
@@ -4300,8 +4599,12 @@
       <c r="O72" s="1">
         <v>0.26098353904812699</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q72" s="1">
+        <f t="shared" si="1"/>
+        <v>1.199763684170353</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>26</v>
       </c>
@@ -4347,8 +4650,12 @@
       <c r="O73" s="1">
         <v>0.25949434202634097</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q73" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0731157993077509</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>27</v>
       </c>
@@ -4394,8 +4701,12 @@
       <c r="O74" s="1">
         <v>0.26439880349245598</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q74" s="1">
+        <f t="shared" si="1"/>
+        <v>1.12692362439811</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>27</v>
       </c>
@@ -4441,8 +4752,12 @@
       <c r="O75" s="1">
         <v>0.25313704241294099</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q75" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99283297073330101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>27</v>
       </c>
@@ -4488,8 +4803,12 @@
       <c r="O76" s="1">
         <v>0.236087448700567</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96745092383689191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>27</v>
       </c>
@@ -4535,8 +4854,12 @@
       <c r="O77" s="1">
         <v>0.23417784466201</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q77" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98584983313094998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>27</v>
       </c>
@@ -4582,8 +4905,12 @@
       <c r="O78" s="1">
         <v>0.24263946436689199</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q78" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97771748202077491</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>27</v>
       </c>
@@ -4629,8 +4956,12 @@
       <c r="O79" s="1">
         <v>0.25212153312594099</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q79" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0439992033035159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>28</v>
       </c>
@@ -4676,8 +5007,12 @@
       <c r="O80" s="1">
         <v>0.26296261698558099</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q80" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0048739628368639</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>28</v>
       </c>
@@ -4723,8 +5058,12 @@
       <c r="O81" s="1">
         <v>0.26488790654828498</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q81" s="1">
+        <f t="shared" si="1"/>
+        <v>1.31888879425123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>28</v>
       </c>
@@ -4770,8 +5109,12 @@
       <c r="O82" s="1">
         <v>0.25810924287910503</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q82" s="1">
+        <f t="shared" si="1"/>
+        <v>1.506841509104391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>28</v>
       </c>
@@ -4817,8 +5160,12 @@
       <c r="O83" s="1">
         <v>0.23409163352030801</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q83" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82172727215283503</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>28</v>
       </c>
@@ -4864,8 +5211,12 @@
       <c r="O84" s="1">
         <v>0.23005150746104699</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.78871817879922701</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>28</v>
       </c>
@@ -4911,8 +5262,12 @@
       <c r="O85" s="1">
         <v>0.21673970781108501</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q85" s="1">
+        <f t="shared" si="1"/>
+        <v>0.95846755732204503</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>29</v>
       </c>
@@ -4958,8 +5313,12 @@
       <c r="O86" s="1">
         <v>0.25643764320290802</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97382062833256899</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>29</v>
       </c>
@@ -5005,8 +5364,12 @@
       <c r="O87" s="1">
         <v>0.27336076182938401</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q87" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2334600627516281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>29</v>
       </c>
@@ -5052,8 +5415,12 @@
       <c r="O88" s="1">
         <v>0.26114084211083499</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q88" s="1">
+        <f t="shared" si="1"/>
+        <v>1.278873117597197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>29</v>
       </c>
@@ -5099,8 +5466,12 @@
       <c r="O89" s="1">
         <v>0.21909959952611499</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q89" s="1">
+        <f t="shared" si="1"/>
+        <v>0.81726183710645106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>29</v>
       </c>
@@ -5146,8 +5517,12 @@
       <c r="O90" s="1">
         <v>0.232523043655988</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q90" s="1">
+        <f t="shared" si="1"/>
+        <v>0.89997694840838904</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>29</v>
       </c>
@@ -5193,8 +5568,12 @@
       <c r="O91" s="1">
         <v>0.227809962947182</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q91" s="1">
+        <f t="shared" si="1"/>
+        <v>0.77939949482406801</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>30</v>
       </c>
@@ -5240,8 +5619,12 @@
       <c r="O92" s="1">
         <v>0.25886128976029499</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91802441949312596</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>30</v>
       </c>
@@ -5287,8 +5670,12 @@
       <c r="O93" s="1">
         <v>0.236731744464314</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q93" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94063422885102388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>30</v>
       </c>
@@ -5334,8 +5721,12 @@
       <c r="O94" s="1">
         <v>0.27842969363716802</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q94" s="1">
+        <f t="shared" si="1"/>
+        <v>1.274337505320644</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>30</v>
       </c>
@@ -5381,8 +5772,12 @@
       <c r="O95" s="1">
         <v>0.20649467976799599</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q95" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82554963558206196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>30</v>
       </c>
@@ -5428,8 +5823,12 @@
       <c r="O96" s="1">
         <v>0.218531787684415</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q96" s="1">
+        <f t="shared" si="1"/>
+        <v>0.775326108243239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>30</v>
       </c>
@@ -5474,6 +5873,10 @@
       </c>
       <c r="O97" s="1">
         <v>0.20962133185169701</v>
+      </c>
+      <c r="Q97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.64574544511173793</v>
       </c>
     </row>
   </sheetData>
